--- a/dist/document/dest/2020/10/doctors/1.xlsx
+++ b/dist/document/dest/2020/10/doctors/1.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>700</v>
       </c>
-      <c r="C2" s="1">
-        <v>2415000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
-        <v>114000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>390</v>
       </c>
-      <c r="C4" s="1">
-        <v>2917200</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>76</v>
       </c>
-      <c r="C5" s="1">
-        <v>262200</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>320</v>
       </c>
-      <c r="C6" s="1">
-        <v>5104000</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>42</v>
       </c>
-      <c r="C7" s="1">
-        <v>137550</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
-        <v>1089000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>104</v>
       </c>
-      <c r="C9" s="1">
-        <v>1913600</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>71</v>
       </c>
-      <c r="C10" s="1">
-        <v>3772230</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>581</v>
       </c>
-      <c r="C11" s="1">
-        <v>9906050</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>153</v>
       </c>
-      <c r="C12" s="1">
-        <v>2019600</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>382</v>
       </c>
-      <c r="C13" s="1">
-        <v>1317900</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="C14" s="1">
-        <v>683100</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="1">
-        <v>58800</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>20</v>
       </c>
-      <c r="C16" s="1">
-        <v>68600</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>804</v>
       </c>
-      <c r="C17" s="1">
-        <v>2681340</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>142</v>
       </c>
-      <c r="C18" s="1">
-        <v>2343000</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>703</v>
       </c>
-      <c r="C19" s="1">
-        <v>4562470</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="1">
-        <v>33000</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>176</v>
       </c>
-      <c r="C21" s="1">
-        <v>526240</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C22" s="1">
-        <v>64900</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>1</v>
       </c>
-      <c r="C23" s="1">
-        <v>158200</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>30</v>
       </c>
-      <c r="C24" s="1">
-        <v>120750</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>510</v>
       </c>
-      <c r="C25" s="1">
-        <v>10098000</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>197</v>
       </c>
-      <c r="C26" s="1">
-        <v>1110095</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>10</v>
       </c>
-      <c r="C27" s="1">
-        <v>34500</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>204</v>
       </c>
-      <c r="C28" s="1">
-        <v>2692800</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>194</v>
       </c>
-      <c r="C29" s="1">
-        <v>3627800</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>67</v>
       </c>
-      <c r="C30" s="1">
-        <v>362135</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>407</v>
       </c>
-      <c r="C31" s="1">
-        <v>6581190</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>68</v>
       </c>
-      <c r="C32" s="1">
-        <v>6732000</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>1270</v>
       </c>
-      <c r="C33" s="1">
-        <v>2336800</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>14</v>
       </c>
-      <c r="C34" s="1">
-        <v>63140</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>8</v>
       </c>
-      <c r="C35" s="1">
-        <v>1027200</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>289</v>
       </c>
-      <c r="C36" s="1">
-        <v>365585</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>161</v>
       </c>
-      <c r="C37" s="1">
-        <v>903210</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>2101</v>
       </c>
-      <c r="C38" s="1">
-        <v>11597520</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>412</v>
       </c>
-      <c r="C39" s="1">
-        <v>3172400</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>10</v>
       </c>
-      <c r="C40" s="1">
-        <v>2888000</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>143</v>
       </c>
-      <c r="C41" s="1">
-        <v>1808950</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>1</v>
       </c>
-      <c r="C42" s="1">
-        <v>54400</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>75</v>
       </c>
-      <c r="C43" s="1">
-        <v>75000</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>23</v>
       </c>
-      <c r="C44" s="1">
-        <v>3795000</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>14</v>
       </c>
-      <c r="C45" s="1">
-        <v>6370</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>259</v>
       </c>
-      <c r="C46" s="1">
-        <v>9686600</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>60</v>
       </c>
-      <c r="C47" s="1">
-        <v>72300</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>192</v>
       </c>
-      <c r="C48" s="1">
-        <v>1668480</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>420</v>
       </c>
-      <c r="C49" s="1">
-        <v>2173500</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>234</v>
       </c>
-      <c r="C50" s="1">
-        <v>3861000</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>219</v>
       </c>
-      <c r="C51" s="1">
-        <v>1927200</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>20</v>
       </c>
-      <c r="C52" s="1">
-        <v>44400</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>14</v>
       </c>
-      <c r="C53" s="1">
-        <v>292180</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>119</v>
       </c>
-      <c r="C54" s="1">
-        <v>837165</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>454</v>
       </c>
-      <c r="C55" s="1">
-        <v>8489800</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>144</v>
       </c>
-      <c r="C56" s="1">
-        <v>3643200</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>16</v>
       </c>
-      <c r="C57" s="1">
-        <v>580800</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1021,7 +853,7 @@
         <v>13074</v>
       </c>
       <c r="C58" s="1">
-        <v>134877450</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/1.xlsx
+++ b/dist/document/dest/2020/10/doctors/1.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C238"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,466 +399,2614 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>700</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>115500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Antibio (Lactobacillus acidophilus 75mg)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>304</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1048800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>390</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>96600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Baci-subti (Bacillus subtilis)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>76</v>
+        <v>56</v>
+      </c>
+      <c r="C5" s="1">
+        <v>193200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Batitop (Clarithromycin 500mg)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>320</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Be-Stedy 16 (Betahistine 16mg)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>42</v>
+        <v>128</v>
+      </c>
+      <c r="C7" s="1">
+        <v>441600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Benita (Budesonide)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>11</v>
+        <v>148</v>
+      </c>
+      <c r="C8" s="1">
+        <v>510600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>104</v>
+        <v>168</v>
+      </c>
+      <c r="C9" s="1">
+        <v>966000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Bluemoxi (Moxifloxacin 400mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B10" s="1">
-        <v>71</v>
+        <v>407</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3044360</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Cefactum (Cefdinir 300mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B11" s="1">
-        <v>581</v>
+        <v>50</v>
+      </c>
+      <c r="C11" s="1">
+        <v>374000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B12" s="1">
-        <v>153</v>
+        <v>60</v>
+      </c>
+      <c r="C12" s="1">
+        <v>448800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B13" s="1">
-        <v>382</v>
+        <v>30</v>
+      </c>
+      <c r="C13" s="1">
+        <v>224400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Ciloxan (Ciprofloxacin Hcl 0.3%) collye</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
+        <v>80</v>
+      </c>
+      <c r="C14" s="1">
+        <v>598400</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v xml:space="preserve">Cồn Boric </v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B15" s="1">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>224400</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Debridat (Trimebutine 100mg)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B16" s="1">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>48300</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Batitop (Clarithromycin 500mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>804</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>478500</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Egodinir (Cefdinir 300mg)</v>
+        <v>Batitop (Clarithromycin 500mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>142</v>
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>319000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Elpertone (Erdosteine 300mg)</v>
+        <v>Batitop (Clarithromycin 500mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>703</v>
+        <v>245</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3907750</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Eskar Red (Tetrahydrozolin 7.5mg)</v>
+        <v>Batitop (Clarithromycin 500mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>478500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Fagendol (Flunarizine 5mg)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>176</v>
+        <v>141</v>
+      </c>
+      <c r="C21" s="1">
+        <v>461775</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v xml:space="preserve">Fleet Enema 133ml (bơm) </v>
+        <v>Benita (Budesonide)</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
+      <c r="C22" s="1">
+        <v>99000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Flixonase Spray (Fluticasone propionate)</v>
+        <v>Benita (Budesonide)</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
+      <c r="C23" s="1">
+        <v>99000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Gujujnam (Piracetam 800mg)</v>
+        <v>Benita (Budesonide)</v>
       </c>
       <c r="B24" s="1">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>594000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v>Benita (Budesonide)</v>
       </c>
       <c r="B25" s="1">
-        <v>510</v>
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>198000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Itametazin  5mg(Mequitazine)</v>
+        <v>Benita (Budesonide)</v>
       </c>
       <c r="B26" s="1">
-        <v>197</v>
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>99000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="C27" s="1">
+        <v>485760</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Larfix (Lornoxicam 8mg)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>204</v>
+        <v>14</v>
+      </c>
+      <c r="C28" s="1">
+        <v>77280</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Locinvid (Levofloxacin 500mg)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>194</v>
+        <v>60</v>
+      </c>
+      <c r="C29" s="1">
+        <v>331200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Loxcip (Fexofenadine 180mg)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>67</v>
+        <v>40</v>
+      </c>
+      <c r="C30" s="1">
+        <v>220800</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>407</v>
+        <v>14</v>
+      </c>
+      <c r="C31" s="1">
+        <v>77280</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Medoral (Chlorhexidin 250ml)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>68</v>
+        <v>412</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2274240</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Medovent (Ambroxol 30mg)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>1270</v>
+        <v>76</v>
+      </c>
+      <c r="C33" s="1">
+        <v>419520</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C34" s="1">
+        <v>110400</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B35" s="1">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C35" s="1">
+        <v>368000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B36" s="1">
-        <v>289</v>
+        <v>56</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1030400</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Mexams (Montelukast 5mg)</v>
+        <v>Bluemoxi (Moxifloxacin 400mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>161</v>
+        <v>7</v>
+      </c>
+      <c r="C37" s="1">
+        <v>371910</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Mezondin (Thymomodulin 80mg)</v>
+        <v>Bluemoxi (Moxifloxacin 400mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>2101</v>
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>371910</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Montelair (Montelukast 10mg)</v>
+        <v>Bluemoxi (Moxifloxacin 400mg)</v>
       </c>
       <c r="B39" s="1">
-        <v>412</v>
+        <v>21</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1115730</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Nazoster (Mometasone furoate monohydrate)</v>
+        <v>Bluemoxi (Moxifloxacin 400mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C40" s="1">
+        <v>743820</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Nolpaza (Pantoprazole 40mg)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B41" s="1">
-        <v>143</v>
+        <v>14</v>
+      </c>
+      <c r="C41" s="1">
+        <v>400400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Otrivin 0.1% 10ml</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="C42" s="1">
+        <v>988900</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="C43" s="1">
+        <v>511500</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>PhilDesona (Budesonide 10ml)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="C44" s="1">
+        <v>579700</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v xml:space="preserve">Prednisone </v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C45" s="1">
+        <v>477400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Pricefil (Cefprozil 500mg)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>259</v>
+        <v>332</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5660600</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Regurgex (Domperidone 10mg)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C47" s="1">
+        <v>511500</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>192</v>
+        <v>48</v>
+      </c>
+      <c r="C48" s="1">
+        <v>818400</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Seromin (Vitamin A, C, E)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>420</v>
+        <v>7</v>
+      </c>
+      <c r="C49" s="1">
+        <v>92400</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Sodinir (Cefdinir 300mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>234</v>
+        <v>7</v>
+      </c>
+      <c r="C50" s="1">
+        <v>92400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Somexwell (Esomeprazole 20mg</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>219</v>
+        <v>64</v>
+      </c>
+      <c r="C51" s="1">
+        <v>844800</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v xml:space="preserve">Sorbitol </v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B52" s="1">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C52" s="1">
+        <v>184800</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Sporal (Itraconazole 100mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B53" s="1">
-        <v>14</v>
+        <v>80</v>
+      </c>
+      <c r="C53" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Tesafu (Rupatadin 10mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B54" s="1">
-        <v>119</v>
+        <v>30</v>
+      </c>
+      <c r="C54" s="1">
+        <v>103500</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Vinaflam (Cefuroxime 500mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B55" s="1">
-        <v>454</v>
+        <v>30</v>
+      </c>
+      <c r="C55" s="1">
+        <v>103500</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Virclath (Clarithromycin 500mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B56" s="1">
-        <v>144</v>
+        <v>80</v>
+      </c>
+      <c r="C56" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Xypenat 75ml</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B57" s="1">
-        <v>16</v>
+        <v>357</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1231650</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>30</v>
+      </c>
+      <c r="C58" s="1">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>30</v>
+      </c>
+      <c r="C59" s="1">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Chondrasil (Allopurinol 300mg)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>15</v>
+      </c>
+      <c r="C60" s="1">
+        <v>63825</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Ciloxan (Ciprofloxacin Hcl 0.3%) collye</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Ciloxan (Ciprofloxacin Hcl 0.3%) collye</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>303600</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Ciloxan (Ciprofloxacin Hcl 0.3%) collye</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Ciloxan (Ciprofloxacin Hcl 0.3%) collye</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>139100</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v xml:space="preserve">Cồn Boric </v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v xml:space="preserve">Cồn Boric </v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v xml:space="preserve">Cồn Boric </v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v xml:space="preserve">Cồn Boric </v>
+      </c>
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Debridat (Trimebutine 100mg)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>30</v>
+      </c>
+      <c r="C70" s="1">
+        <v>102900</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Doniwell (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>437</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1457395</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Efferalgan Sủi 500mg</v>
+      </c>
+      <c r="B72" s="1">
+        <v>24</v>
+      </c>
+      <c r="C72" s="1">
+        <v>74400</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>14</v>
+      </c>
+      <c r="C73" s="1">
+        <v>90860</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>34</v>
+      </c>
+      <c r="C74" s="1">
+        <v>220660</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>14</v>
+      </c>
+      <c r="C75" s="1">
+        <v>90860</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>40</v>
+      </c>
+      <c r="C76" s="1">
+        <v>259600</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>334</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2167660</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>14</v>
+      </c>
+      <c r="C78" s="1">
+        <v>90860</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>82</v>
+      </c>
+      <c r="C79" s="1">
+        <v>532180</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Exomuc (Acetylcysteine 200mg)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>28</v>
+      </c>
+      <c r="C80" s="1">
+        <v>136080</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>50</v>
+      </c>
+      <c r="C81" s="1">
+        <v>149500</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>30</v>
+      </c>
+      <c r="C82" s="1">
+        <v>89700</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>30</v>
+      </c>
+      <c r="C83" s="1">
+        <v>89700</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>20</v>
+      </c>
+      <c r="C84" s="1">
+        <v>59800</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>289</v>
+      </c>
+      <c r="C85" s="1">
+        <v>864110</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>30</v>
+      </c>
+      <c r="C86" s="1">
+        <v>89700</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>28</v>
+      </c>
+      <c r="C87" s="1">
+        <v>277200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>14</v>
+      </c>
+      <c r="C88" s="1">
+        <v>138600</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Forlax (Macrogol 4000)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>30</v>
+      </c>
+      <c r="C89" s="1">
+        <v>147000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Goldesome (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>30</v>
+      </c>
+      <c r="C90" s="1">
+        <v>653400</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>88</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1742400</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>20</v>
+      </c>
+      <c r="C92" s="1">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>74</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1465200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>30</v>
+      </c>
+      <c r="C94" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>14</v>
+      </c>
+      <c r="C95" s="1">
+        <v>277200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B96" s="1">
+        <v>369</v>
+      </c>
+      <c r="C96" s="1">
+        <v>7306200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B97" s="1">
+        <v>106</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2098800</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Itametazin  5mg(Mequitazine)</v>
+      </c>
+      <c r="B98" s="1">
+        <v>35</v>
+      </c>
+      <c r="C98" s="1">
+        <v>197225</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Itametazin  5mg(Mequitazine)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>174</v>
+      </c>
+      <c r="C99" s="1">
+        <v>980490</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Itametazin  5mg(Mequitazine)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>14</v>
+      </c>
+      <c r="C100" s="1">
+        <v>78890</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Kuplevotin (Levosulpirid 25mg)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>80</v>
+      </c>
+      <c r="C101" s="1">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Kuplevotin (Levosulpirid 25mg)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>30</v>
+      </c>
+      <c r="C102" s="1">
+        <v>86250</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Kuplevotin (Levosulpirid 25mg)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>108</v>
+      </c>
+      <c r="C103" s="1">
+        <v>310500</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Larfix (Lornoxicam 8mg)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>28</v>
+      </c>
+      <c r="C104" s="1">
+        <v>369600</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Larfix (Lornoxicam 8mg)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>194</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2560800</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Larfix (Lornoxicam 8mg)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>56</v>
+      </c>
+      <c r="C106" s="1">
+        <v>739200</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>15</v>
+      </c>
+      <c r="C107" s="1">
+        <v>280500</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>100</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1870000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>28</v>
+      </c>
+      <c r="C109" s="1">
+        <v>523600</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>22</v>
+      </c>
+      <c r="C110" s="1">
+        <v>118910</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>15</v>
+      </c>
+      <c r="C111" s="1">
+        <v>81075</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>17</v>
+      </c>
+      <c r="C112" s="1">
+        <v>91885</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>69</v>
+      </c>
+      <c r="C113" s="1">
+        <v>372945</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>22</v>
+      </c>
+      <c r="C114" s="1">
+        <v>118910</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>14</v>
+      </c>
+      <c r="C115" s="1">
+        <v>226380</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>74</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1196580</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>80</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1293600</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>20</v>
+      </c>
+      <c r="C118" s="1">
+        <v>323400</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>335</v>
+      </c>
+      <c r="C119" s="1">
+        <v>5416950</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>108</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1746360</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>30</v>
+      </c>
+      <c r="C121" s="1">
+        <v>485100</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>20</v>
+      </c>
+      <c r="C122" s="1">
+        <v>323400</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>30</v>
+      </c>
+      <c r="C123" s="1">
+        <v>89700</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>168</v>
+      </c>
+      <c r="C124" s="1">
+        <v>502320</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>60</v>
+      </c>
+      <c r="C125" s="1">
+        <v>179400</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>30</v>
+      </c>
+      <c r="C126" s="1">
+        <v>89700</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Medoral (Chlorhexidin 250ml)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Medoral (Chlorhexidin 250ml)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Medoral (Chlorhexidin 250ml)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>3</v>
+      </c>
+      <c r="C129" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Medoral (Chlorhexidin 250ml)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Medoral (Chlorhexidin 250ml)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>32</v>
+      </c>
+      <c r="C131" s="1">
+        <v>3168000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Medoral (Chlorhexidin 250ml)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2</v>
+      </c>
+      <c r="C132" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Medoral (Chlorhexidin 250ml)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>3</v>
+      </c>
+      <c r="C133" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Medoral (Chlorhexidin 250ml)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>2</v>
+      </c>
+      <c r="C134" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>60</v>
+      </c>
+      <c r="C135" s="1">
+        <v>110400</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>14</v>
+      </c>
+      <c r="C136" s="1">
+        <v>25760</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>44</v>
+      </c>
+      <c r="C137" s="1">
+        <v>80960</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>120</v>
+      </c>
+      <c r="C138" s="1">
+        <v>220800</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>468</v>
+      </c>
+      <c r="C139" s="1">
+        <v>861120</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>174</v>
+      </c>
+      <c r="C140" s="1">
+        <v>320160</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>60</v>
+      </c>
+      <c r="C141" s="1">
+        <v>110400</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>28</v>
+      </c>
+      <c r="C142" s="1">
+        <v>51520</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Medrol 4mg (Methylprednisolone)</v>
+      </c>
+      <c r="B143" s="1">
+        <v>6</v>
+      </c>
+      <c r="C143" s="1">
+        <v>7620</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1">
+        <v>128400</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+      </c>
+      <c r="B145" s="1">
+        <v>2</v>
+      </c>
+      <c r="C145" s="1">
+        <v>256800</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>128400</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+      </c>
+      <c r="B147" s="1">
+        <v>8</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1027200</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1">
+        <v>128400</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B149" s="1">
+        <v>30</v>
+      </c>
+      <c r="C149" s="1">
+        <v>37950</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B150" s="1">
+        <v>10</v>
+      </c>
+      <c r="C150" s="1">
+        <v>12650</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B151" s="1">
+        <v>174</v>
+      </c>
+      <c r="C151" s="1">
+        <v>220110</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B152" s="1">
+        <v>28</v>
+      </c>
+      <c r="C152" s="1">
+        <v>35420</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B153" s="1">
+        <v>30</v>
+      </c>
+      <c r="C153" s="1">
+        <v>37950</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B154" s="1">
+        <v>14</v>
+      </c>
+      <c r="C154" s="1">
+        <v>17710</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B155" s="1">
+        <v>10</v>
+      </c>
+      <c r="C155" s="1">
+        <v>56100</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B156" s="1">
+        <v>25</v>
+      </c>
+      <c r="C156" s="1">
+        <v>140250</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B157" s="1">
+        <v>15</v>
+      </c>
+      <c r="C157" s="1">
+        <v>84150</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B158" s="1">
+        <v>89</v>
+      </c>
+      <c r="C158" s="1">
+        <v>499290</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B159" s="1">
+        <v>15</v>
+      </c>
+      <c r="C159" s="1">
+        <v>84150</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B160" s="1">
+        <v>30</v>
+      </c>
+      <c r="C160" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B161" s="1">
+        <v>14</v>
+      </c>
+      <c r="C161" s="1">
+        <v>77280</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B162" s="1">
+        <v>10</v>
+      </c>
+      <c r="C162" s="1">
+        <v>55200</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B163" s="1">
+        <v>728</v>
+      </c>
+      <c r="C163" s="1">
+        <v>4018560</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B164" s="1">
+        <v>84</v>
+      </c>
+      <c r="C164" s="1">
+        <v>463680</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B165" s="1">
+        <v>32</v>
+      </c>
+      <c r="C165" s="1">
+        <v>176640</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B166" s="1">
+        <v>58</v>
+      </c>
+      <c r="C166" s="1">
+        <v>320160</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B167" s="1">
+        <v>45</v>
+      </c>
+      <c r="C167" s="1">
+        <v>346500</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B168" s="1">
+        <v>29</v>
+      </c>
+      <c r="C168" s="1">
+        <v>223300</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B169" s="1">
+        <v>70</v>
+      </c>
+      <c r="C169" s="1">
+        <v>539000</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B170" s="1">
+        <v>7</v>
+      </c>
+      <c r="C170" s="1">
+        <v>53900</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B171" s="1">
+        <v>391</v>
+      </c>
+      <c r="C171" s="1">
+        <v>3010700</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B172" s="1">
+        <v>53</v>
+      </c>
+      <c r="C172" s="1">
+        <v>408100</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B173" s="1">
+        <v>69</v>
+      </c>
+      <c r="C173" s="1">
+        <v>531300</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Nazoster (Mometasone furoate monohydrate)</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1">
+        <v>288800</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Nazoster (Mometasone furoate monohydrate)</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1</v>
+      </c>
+      <c r="C175" s="1">
+        <v>288800</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Nazoster (Mometasone furoate monohydrate)</v>
+      </c>
+      <c r="B176" s="1">
+        <v>3</v>
+      </c>
+      <c r="C176" s="1">
+        <v>866400</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Nazoster (Mometasone furoate monohydrate)</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1</v>
+      </c>
+      <c r="C177" s="1">
+        <v>288800</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Nazoster (Mometasone furoate monohydrate)</v>
+      </c>
+      <c r="B178" s="1">
+        <v>2</v>
+      </c>
+      <c r="C178" s="1">
+        <v>577600</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B179" s="1">
+        <v>15</v>
+      </c>
+      <c r="C179" s="1">
+        <v>189750</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B180" s="1">
+        <v>15</v>
+      </c>
+      <c r="C180" s="1">
+        <v>189750</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66</v>
+      </c>
+      <c r="C181" s="1">
+        <v>834900</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B182" s="1">
+        <v>14</v>
+      </c>
+      <c r="C182" s="1">
+        <v>177100</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B183" s="1">
+        <v>15</v>
+      </c>
+      <c r="C183" s="1">
+        <v>189750</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Otrivin 0.1% 10ml</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1</v>
+      </c>
+      <c r="C184" s="1">
+        <v>54400</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Otrivin 0.1% 10ml</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1">
+        <v>54400</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Otrivin 0.1% 10ml</v>
+      </c>
+      <c r="B186" s="1">
+        <v>5</v>
+      </c>
+      <c r="C186" s="1">
+        <v>272000</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B187" s="1">
+        <v>132</v>
+      </c>
+      <c r="C187" s="1">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B188" s="1">
+        <v>3</v>
+      </c>
+      <c r="C188" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>PhilDesona (Budesonide 10ml)</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1</v>
+      </c>
+      <c r="C189" s="1">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>PhilDesona (Budesonide 10ml)</v>
+      </c>
+      <c r="B190" s="1">
+        <v>4</v>
+      </c>
+      <c r="C190" s="1">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>PhilDesona (Budesonide 10ml)</v>
+      </c>
+      <c r="B191" s="1">
+        <v>1</v>
+      </c>
+      <c r="C191" s="1">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>PhilDesona (Budesonide 10ml)</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2</v>
+      </c>
+      <c r="C192" s="1">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>PhilDesona (Budesonide 10ml)</v>
+      </c>
+      <c r="B193" s="1">
+        <v>9</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1485000</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>PhilDesona (Budesonide 10ml)</v>
+      </c>
+      <c r="B194" s="1">
+        <v>2</v>
+      </c>
+      <c r="C194" s="1">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>PhilDesona (Budesonide 10ml)</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1</v>
+      </c>
+      <c r="C195" s="1">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B196" s="1">
+        <v>60</v>
+      </c>
+      <c r="C196" s="1">
+        <v>2244000</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B197" s="1">
+        <v>148</v>
+      </c>
+      <c r="C197" s="1">
+        <v>5535200</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B198" s="1">
+        <v>21</v>
+      </c>
+      <c r="C198" s="1">
+        <v>785400</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B199" s="1">
+        <v>15</v>
+      </c>
+      <c r="C199" s="1">
+        <v>561000</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B200" s="1">
+        <v>30</v>
+      </c>
+      <c r="C200" s="1">
+        <v>194700</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B201" s="1">
+        <v>14</v>
+      </c>
+      <c r="C201" s="1">
+        <v>121660</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B202" s="1">
+        <v>30</v>
+      </c>
+      <c r="C202" s="1">
+        <v>260700</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B203" s="1">
+        <v>164</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1425160</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B204" s="1">
+        <v>57</v>
+      </c>
+      <c r="C204" s="1">
+        <v>495330</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B205" s="1">
+        <v>15</v>
+      </c>
+      <c r="C205" s="1">
+        <v>130350</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B206" s="1">
+        <v>124</v>
+      </c>
+      <c r="C206" s="1">
+        <v>641700</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B207" s="1">
+        <v>28</v>
+      </c>
+      <c r="C207" s="1">
+        <v>144900</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B208" s="1">
+        <v>30</v>
+      </c>
+      <c r="C208" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B209" s="1">
+        <v>30</v>
+      </c>
+      <c r="C209" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B210" s="1">
+        <v>196</v>
+      </c>
+      <c r="C210" s="1">
+        <v>3234000</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B211" s="1">
+        <v>30</v>
+      </c>
+      <c r="C211" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B212" s="1">
+        <v>30</v>
+      </c>
+      <c r="C212" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B213" s="1">
+        <v>44</v>
+      </c>
+      <c r="C213" s="1">
+        <v>726000</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B214" s="1">
+        <v>30</v>
+      </c>
+      <c r="C214" s="1">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B215" s="1">
+        <v>7</v>
+      </c>
+      <c r="C215" s="1">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B216" s="1">
+        <v>160</v>
+      </c>
+      <c r="C216" s="1">
+        <v>1408000</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B217" s="1">
+        <v>15</v>
+      </c>
+      <c r="C217" s="1">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Tesafu (Rupatadin 10mg)</v>
+      </c>
+      <c r="B218" s="1">
+        <v>10</v>
+      </c>
+      <c r="C218" s="1">
+        <v>70350</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Tesafu (Rupatadin 10mg)</v>
+      </c>
+      <c r="B219" s="1">
+        <v>43</v>
+      </c>
+      <c r="C219" s="1">
+        <v>302505</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Tesafu (Rupatadin 10mg)</v>
+      </c>
+      <c r="B220" s="1">
+        <v>14</v>
+      </c>
+      <c r="C220" s="1">
+        <v>98490</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Tragutan (Eucalpyptol, tinh dầu gừng, tinh dầu tần, menthol)</v>
+      </c>
+      <c r="B221" s="1">
+        <v>15</v>
+      </c>
+      <c r="C221" s="1">
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B222" s="1">
+        <v>14</v>
+      </c>
+      <c r="C222" s="1">
+        <v>261800</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B223" s="1">
+        <v>14</v>
+      </c>
+      <c r="C223" s="1">
+        <v>261800</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B224" s="1">
+        <v>260</v>
+      </c>
+      <c r="C224" s="1">
+        <v>4862000</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B225" s="1">
+        <v>34</v>
+      </c>
+      <c r="C225" s="1">
+        <v>635800</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B226" s="1">
+        <v>2</v>
+      </c>
+      <c r="C226" s="1">
+        <v>37400</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B227" s="1">
+        <v>28</v>
+      </c>
+      <c r="C227" s="1">
+        <v>523600</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B228" s="1">
+        <v>30</v>
+      </c>
+      <c r="C228" s="1">
+        <v>561000</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B229" s="1">
+        <v>20</v>
+      </c>
+      <c r="C229" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B230" s="1">
+        <v>98</v>
+      </c>
+      <c r="C230" s="1">
+        <v>2479400</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B231" s="1">
+        <v>30</v>
+      </c>
+      <c r="C231" s="1">
+        <v>144900</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Xypenat 75ml</v>
+      </c>
+      <c r="B232" s="1">
+        <v>1</v>
+      </c>
+      <c r="C232" s="1">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Xypenat 75ml</v>
+      </c>
+      <c r="B233" s="1">
+        <v>3</v>
+      </c>
+      <c r="C233" s="1">
+        <v>108900</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Xypenat 75ml</v>
+      </c>
+      <c r="B234" s="1">
+        <v>15</v>
+      </c>
+      <c r="C234" s="1">
+        <v>544500</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Xypenat 75ml</v>
+      </c>
+      <c r="B235" s="1">
+        <v>2</v>
+      </c>
+      <c r="C235" s="1">
+        <v>72600</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Xypenat 75ml</v>
+      </c>
+      <c r="B236" s="1">
+        <v>2</v>
+      </c>
+      <c r="C236" s="1">
+        <v>72600</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Zinecox (Cefditoren 200mg)</v>
+      </c>
+      <c r="B237" s="1">
+        <v>20</v>
+      </c>
+      <c r="C237" s="1">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B58" s="1">
-        <v>13074</v>
-      </c>
-      <c r="C58" s="1">
-        <v>NaN</v>
+      <c r="B238" s="1">
+        <v>13813</v>
+      </c>
+      <c r="C238" s="1">
+        <v>139471330</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C58"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C238"/>
   </ignoredErrors>
 </worksheet>
 </file>